--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Mdk-Itga6.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Mdk-Itga6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Itga6</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>37.984176838826</v>
+        <v>2.301656666666667</v>
       </c>
       <c r="H2">
-        <v>37.984176838826</v>
+        <v>6.90497</v>
       </c>
       <c r="I2">
-        <v>0.8040995731395441</v>
+        <v>0.04570678505973542</v>
       </c>
       <c r="J2">
-        <v>0.8040995731395441</v>
+        <v>0.04570678505973542</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>201.243654246126</v>
+        <v>209.1122436666667</v>
       </c>
       <c r="N2">
-        <v>201.243654246126</v>
+        <v>627.336731</v>
       </c>
       <c r="O2">
-        <v>0.5305320256031147</v>
+        <v>0.5129127453994473</v>
       </c>
       <c r="P2">
-        <v>0.5305320256031147</v>
+        <v>0.5129127453994472</v>
       </c>
       <c r="Q2">
-        <v>7644.074550576407</v>
+        <v>481.3045897170078</v>
       </c>
       <c r="R2">
-        <v>7644.074550576407</v>
+        <v>4331.74130745307</v>
       </c>
       <c r="S2">
-        <v>0.4266005753243222</v>
+        <v>0.02344359260837134</v>
       </c>
       <c r="T2">
-        <v>0.4266005753243222</v>
+        <v>0.02344359260837133</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>37.984176838826</v>
+        <v>2.301656666666667</v>
       </c>
       <c r="H3">
-        <v>37.984176838826</v>
+        <v>6.90497</v>
       </c>
       <c r="I3">
-        <v>0.8040995731395441</v>
+        <v>0.04570678505973542</v>
       </c>
       <c r="J3">
-        <v>0.8040995731395441</v>
+        <v>0.04570678505973542</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.849567749933223</v>
+        <v>0.9288593333333334</v>
       </c>
       <c r="N3">
-        <v>0.849567749933223</v>
+        <v>2.786578</v>
       </c>
       <c r="O3">
-        <v>0.002239687511875072</v>
+        <v>0.00227831609663822</v>
       </c>
       <c r="P3">
-        <v>0.002239687511875072</v>
+        <v>0.00227831609663822</v>
       </c>
       <c r="Q3">
-        <v>32.27013165002705</v>
+        <v>2.137915276962222</v>
       </c>
       <c r="R3">
-        <v>32.27013165002705</v>
+        <v>19.24123749266</v>
       </c>
       <c r="S3">
-        <v>0.001800931772264713</v>
+        <v>0.0001041345041271785</v>
       </c>
       <c r="T3">
-        <v>0.001800931772264713</v>
+        <v>0.0001041345041271785</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>37.984176838826</v>
+        <v>2.301656666666667</v>
       </c>
       <c r="H4">
-        <v>37.984176838826</v>
+        <v>6.90497</v>
       </c>
       <c r="I4">
-        <v>0.8040995731395441</v>
+        <v>0.04570678505973542</v>
       </c>
       <c r="J4">
-        <v>0.8040995731395441</v>
+        <v>0.04570678505973542</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>123.640944143515</v>
+        <v>124.0924226666667</v>
       </c>
       <c r="N4">
-        <v>123.640944143515</v>
+        <v>372.277268</v>
       </c>
       <c r="O4">
-        <v>0.3259505537685957</v>
+        <v>0.3043752201075658</v>
       </c>
       <c r="P4">
-        <v>0.3259505537685957</v>
+        <v>0.3043752201075658</v>
       </c>
       <c r="Q4">
-        <v>4696.399486866682</v>
+        <v>285.6181519135511</v>
       </c>
       <c r="R4">
-        <v>4696.399486866682</v>
+        <v>2570.56336722196</v>
       </c>
       <c r="S4">
-        <v>0.2620967011499258</v>
+        <v>0.01391201276296617</v>
       </c>
       <c r="T4">
-        <v>0.2620967011499258</v>
+        <v>0.01391201276296617</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>37.984176838826</v>
+        <v>2.301656666666667</v>
       </c>
       <c r="H5">
-        <v>37.984176838826</v>
+        <v>6.90497</v>
       </c>
       <c r="I5">
-        <v>0.8040995731395441</v>
+        <v>0.04570678505973542</v>
       </c>
       <c r="J5">
-        <v>0.8040995731395441</v>
+        <v>0.04570678505973542</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>52.6681114361892</v>
+        <v>72.56660866666667</v>
       </c>
       <c r="N5">
-        <v>52.6681114361892</v>
+        <v>217.699826</v>
       </c>
       <c r="O5">
-        <v>0.1388472096156539</v>
+        <v>0.1779921530318332</v>
       </c>
       <c r="P5">
-        <v>0.1388472096156539</v>
+        <v>0.1779921530318332</v>
       </c>
       <c r="Q5">
-        <v>2000.554858559205</v>
+        <v>167.0234186150244</v>
       </c>
       <c r="R5">
-        <v>2000.554858559205</v>
+        <v>1503.21076753522</v>
       </c>
       <c r="S5">
-        <v>0.1116469819835641</v>
+        <v>0.008135449080945534</v>
       </c>
       <c r="T5">
-        <v>0.1116469819835641</v>
+        <v>0.008135449080945533</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>37.984176838826</v>
+        <v>2.301656666666667</v>
       </c>
       <c r="H6">
-        <v>37.984176838826</v>
+        <v>6.90497</v>
       </c>
       <c r="I6">
-        <v>0.8040995731395441</v>
+        <v>0.04570678505973542</v>
       </c>
       <c r="J6">
-        <v>0.8040995731395441</v>
+        <v>0.04570678505973542</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.921956465244721</v>
+        <v>0.9954153333333333</v>
       </c>
       <c r="N6">
-        <v>0.921956465244721</v>
+        <v>2.986246</v>
       </c>
       <c r="O6">
-        <v>0.002430523500760697</v>
+        <v>0.002441565364515724</v>
       </c>
       <c r="P6">
-        <v>0.002430523500760697</v>
+        <v>0.002441565364515724</v>
       </c>
       <c r="Q6">
-        <v>35.01975741355442</v>
+        <v>2.291104338068889</v>
       </c>
       <c r="R6">
-        <v>35.01975741355442</v>
+        <v>20.61993904262</v>
       </c>
       <c r="S6">
-        <v>0.001954382909467307</v>
+        <v>0.0001115961033252148</v>
       </c>
       <c r="T6">
-        <v>0.001954382909467307</v>
+        <v>0.0001115961033252147</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.70544123655033</v>
+        <v>38.31104533333333</v>
       </c>
       <c r="H7">
-        <v>3.70544123655033</v>
+        <v>114.933136</v>
       </c>
       <c r="I7">
-        <v>0.07844170822094022</v>
+        <v>0.7607888438897402</v>
       </c>
       <c r="J7">
-        <v>0.07844170822094022</v>
+        <v>0.7607888438897401</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>201.243654246126</v>
+        <v>209.1122436666667</v>
       </c>
       <c r="N7">
-        <v>201.243654246126</v>
+        <v>627.336731</v>
       </c>
       <c r="O7">
-        <v>0.5305320256031147</v>
+        <v>0.5129127453994473</v>
       </c>
       <c r="P7">
-        <v>0.5305320256031147</v>
+        <v>0.5129127453994472</v>
       </c>
       <c r="Q7">
-        <v>745.6965350376722</v>
+        <v>8011.308646868712</v>
       </c>
       <c r="R7">
-        <v>745.6965350376722</v>
+        <v>72101.77782181841</v>
       </c>
       <c r="S7">
-        <v>0.04161583835422392</v>
+        <v>0.3902182945887582</v>
       </c>
       <c r="T7">
-        <v>0.04161583835422392</v>
+        <v>0.3902182945887581</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.70544123655033</v>
+        <v>38.31104533333333</v>
       </c>
       <c r="H8">
-        <v>3.70544123655033</v>
+        <v>114.933136</v>
       </c>
       <c r="I8">
-        <v>0.07844170822094022</v>
+        <v>0.7607888438897402</v>
       </c>
       <c r="J8">
-        <v>0.07844170822094022</v>
+        <v>0.7607888438897401</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.849567749933223</v>
+        <v>0.9288593333333334</v>
       </c>
       <c r="N8">
-        <v>0.849567749933223</v>
+        <v>2.786578</v>
       </c>
       <c r="O8">
-        <v>0.002239687511875072</v>
+        <v>0.00227831609663822</v>
       </c>
       <c r="P8">
-        <v>0.002239687511875072</v>
+        <v>0.00227831609663822</v>
       </c>
       <c r="Q8">
-        <v>3.148023373845843</v>
+        <v>35.58557202762311</v>
       </c>
       <c r="R8">
-        <v>3.148023373845843</v>
+        <v>320.270148248608</v>
       </c>
       <c r="S8">
-        <v>0.000175684914312588</v>
+        <v>0.001733317469176777</v>
       </c>
       <c r="T8">
-        <v>0.000175684914312588</v>
+        <v>0.001733317469176777</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.70544123655033</v>
+        <v>38.31104533333333</v>
       </c>
       <c r="H9">
-        <v>3.70544123655033</v>
+        <v>114.933136</v>
       </c>
       <c r="I9">
-        <v>0.07844170822094022</v>
+        <v>0.7607888438897402</v>
       </c>
       <c r="J9">
-        <v>0.07844170822094022</v>
+        <v>0.7607888438897401</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>123.640944143515</v>
+        <v>124.0924226666667</v>
       </c>
       <c r="N9">
-        <v>123.640944143515</v>
+        <v>372.277268</v>
       </c>
       <c r="O9">
-        <v>0.3259505537685957</v>
+        <v>0.3043752201075658</v>
       </c>
       <c r="P9">
-        <v>0.3259505537685957</v>
+        <v>0.3043752201075658</v>
       </c>
       <c r="Q9">
-        <v>458.1442529553965</v>
+        <v>4754.110430305827</v>
       </c>
       <c r="R9">
-        <v>458.1442529553965</v>
+        <v>42786.99387275245</v>
       </c>
       <c r="S9">
-        <v>0.02556811823317007</v>
+        <v>0.2315652718143202</v>
       </c>
       <c r="T9">
-        <v>0.02556811823317007</v>
+        <v>0.2315652718143202</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.70544123655033</v>
+        <v>38.31104533333333</v>
       </c>
       <c r="H10">
-        <v>3.70544123655033</v>
+        <v>114.933136</v>
       </c>
       <c r="I10">
-        <v>0.07844170822094022</v>
+        <v>0.7607888438897402</v>
       </c>
       <c r="J10">
-        <v>0.07844170822094022</v>
+        <v>0.7607888438897401</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>52.6681114361892</v>
+        <v>72.56660866666667</v>
       </c>
       <c r="N10">
-        <v>52.6681114361892</v>
+        <v>217.699826</v>
       </c>
       <c r="O10">
-        <v>0.1388472096156539</v>
+        <v>0.1779921530318332</v>
       </c>
       <c r="P10">
-        <v>0.1388472096156539</v>
+        <v>0.1779921530318332</v>
       </c>
       <c r="Q10">
-        <v>195.1585919668835</v>
+        <v>2780.102634314926</v>
       </c>
       <c r="R10">
-        <v>195.1585919668835</v>
+        <v>25020.92370883434</v>
       </c>
       <c r="S10">
-        <v>0.01089141230396285</v>
+        <v>0.1354144443265341</v>
       </c>
       <c r="T10">
-        <v>0.01089141230396285</v>
+        <v>0.135414444326534</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.70544123655033</v>
+        <v>38.31104533333333</v>
       </c>
       <c r="H11">
-        <v>3.70544123655033</v>
+        <v>114.933136</v>
       </c>
       <c r="I11">
-        <v>0.07844170822094022</v>
+        <v>0.7607888438897402</v>
       </c>
       <c r="J11">
-        <v>0.07844170822094022</v>
+        <v>0.7607888438897401</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.921956465244721</v>
+        <v>0.9954153333333333</v>
       </c>
       <c r="N11">
-        <v>0.921956465244721</v>
+        <v>2.986246</v>
       </c>
       <c r="O11">
-        <v>0.002430523500760697</v>
+        <v>0.002441565364515724</v>
       </c>
       <c r="P11">
-        <v>0.002430523500760697</v>
+        <v>0.002441565364515724</v>
       </c>
       <c r="Q11">
-        <v>3.41625550462197</v>
+        <v>38.13540196082845</v>
       </c>
       <c r="R11">
-        <v>3.41625550462197</v>
+        <v>343.218617647456</v>
       </c>
       <c r="S11">
-        <v>0.0001906544152708088</v>
+        <v>0.00185751569095115</v>
       </c>
       <c r="T11">
-        <v>0.0001906544152708088</v>
+        <v>0.001857515690951149</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.70760760489815</v>
+        <v>3.949784666666667</v>
       </c>
       <c r="H12">
-        <v>2.70760760489815</v>
+        <v>11.849354</v>
       </c>
       <c r="I12">
-        <v>0.05731823881734217</v>
+        <v>0.07843565958645965</v>
       </c>
       <c r="J12">
-        <v>0.05731823881734217</v>
+        <v>0.07843565958645964</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>201.243654246126</v>
+        <v>209.1122436666667</v>
       </c>
       <c r="N12">
-        <v>201.243654246126</v>
+        <v>627.336731</v>
       </c>
       <c r="O12">
-        <v>0.5305320256031147</v>
+        <v>0.5129127453994473</v>
       </c>
       <c r="P12">
-        <v>0.5305320256031147</v>
+        <v>0.5129127453994472</v>
       </c>
       <c r="Q12">
-        <v>544.8888486743047</v>
+        <v>825.9483336468639</v>
       </c>
       <c r="R12">
-        <v>544.8888486743047</v>
+        <v>7433.535002821774</v>
       </c>
       <c r="S12">
-        <v>0.03040916134376762</v>
+        <v>0.0402306494957075</v>
       </c>
       <c r="T12">
-        <v>0.03040916134376762</v>
+        <v>0.04023064949570748</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.70760760489815</v>
+        <v>3.949784666666667</v>
       </c>
       <c r="H13">
-        <v>2.70760760489815</v>
+        <v>11.849354</v>
       </c>
       <c r="I13">
-        <v>0.05731823881734217</v>
+        <v>0.07843565958645965</v>
       </c>
       <c r="J13">
-        <v>0.05731823881734217</v>
+        <v>0.07843565958645964</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.849567749933223</v>
+        <v>0.9288593333333334</v>
       </c>
       <c r="N13">
-        <v>0.849567749933223</v>
+        <v>2.786578</v>
       </c>
       <c r="O13">
-        <v>0.002239687511875072</v>
+        <v>0.00227831609663822</v>
       </c>
       <c r="P13">
-        <v>0.002239687511875072</v>
+        <v>0.00227831609663822</v>
       </c>
       <c r="Q13">
-        <v>2.300296100595404</v>
+        <v>3.668794352290223</v>
       </c>
       <c r="R13">
-        <v>2.300296100595404</v>
+        <v>33.019149170612</v>
       </c>
       <c r="S13">
-        <v>0.0001283749436818743</v>
+        <v>0.0001787012257862669</v>
       </c>
       <c r="T13">
-        <v>0.0001283749436818743</v>
+        <v>0.0001787012257862669</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.70760760489815</v>
+        <v>3.949784666666667</v>
       </c>
       <c r="H14">
-        <v>2.70760760489815</v>
+        <v>11.849354</v>
       </c>
       <c r="I14">
-        <v>0.05731823881734217</v>
+        <v>0.07843565958645965</v>
       </c>
       <c r="J14">
-        <v>0.05731823881734217</v>
+        <v>0.07843565958645964</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>123.640944143515</v>
+        <v>124.0924226666667</v>
       </c>
       <c r="N14">
-        <v>123.640944143515</v>
+        <v>372.277268</v>
       </c>
       <c r="O14">
-        <v>0.3259505537685957</v>
+        <v>0.3043752201075658</v>
       </c>
       <c r="P14">
-        <v>0.3259505537685957</v>
+        <v>0.3043752201075658</v>
       </c>
       <c r="Q14">
-        <v>334.7711606397686</v>
+        <v>490.1383482983192</v>
       </c>
       <c r="R14">
-        <v>334.7711606397686</v>
+        <v>4411.245134684873</v>
       </c>
       <c r="S14">
-        <v>0.0186829116835533</v>
+        <v>0.02387387115091076</v>
       </c>
       <c r="T14">
-        <v>0.0186829116835533</v>
+        <v>0.02387387115091075</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.70760760489815</v>
+        <v>3.949784666666667</v>
       </c>
       <c r="H15">
-        <v>2.70760760489815</v>
+        <v>11.849354</v>
       </c>
       <c r="I15">
-        <v>0.05731823881734217</v>
+        <v>0.07843565958645965</v>
       </c>
       <c r="J15">
-        <v>0.05731823881734217</v>
+        <v>0.07843565958645964</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>52.6681114361892</v>
+        <v>72.56660866666667</v>
       </c>
       <c r="N15">
-        <v>52.6681114361892</v>
+        <v>217.699826</v>
       </c>
       <c r="O15">
-        <v>0.1388472096156539</v>
+        <v>0.1779921530318332</v>
       </c>
       <c r="P15">
-        <v>0.1388472096156539</v>
+        <v>0.1779921530318332</v>
       </c>
       <c r="Q15">
-        <v>142.6045790602491</v>
+        <v>286.6224782236005</v>
       </c>
       <c r="R15">
-        <v>142.6045790602491</v>
+        <v>2579.602304012405</v>
       </c>
       <c r="S15">
-        <v>0.007958477519871617</v>
+        <v>0.0139609319242659</v>
       </c>
       <c r="T15">
-        <v>0.007958477519871617</v>
+        <v>0.0139609319242659</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.70760760489815</v>
+        <v>3.949784666666667</v>
       </c>
       <c r="H16">
-        <v>2.70760760489815</v>
+        <v>11.849354</v>
       </c>
       <c r="I16">
-        <v>0.05731823881734217</v>
+        <v>0.07843565958645965</v>
       </c>
       <c r="J16">
-        <v>0.05731823881734217</v>
+        <v>0.07843565958645964</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.921956465244721</v>
+        <v>0.9954153333333333</v>
       </c>
       <c r="N16">
-        <v>0.921956465244721</v>
+        <v>2.986246</v>
       </c>
       <c r="O16">
-        <v>0.002430523500760697</v>
+        <v>0.002441565364515724</v>
       </c>
       <c r="P16">
-        <v>0.002430523500760697</v>
+        <v>0.002441565364515724</v>
       </c>
       <c r="Q16">
-        <v>2.496296336681624</v>
+        <v>3.931676220564889</v>
       </c>
       <c r="R16">
-        <v>2.496296336681624</v>
+        <v>35.385085985084</v>
       </c>
       <c r="S16">
-        <v>0.0001393133264677642</v>
+        <v>0.0001915057897892456</v>
       </c>
       <c r="T16">
-        <v>0.0001393133264677642</v>
+        <v>0.0001915057897892455</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.84092505088403</v>
+        <v>2.742477666666666</v>
       </c>
       <c r="H17">
-        <v>2.84092505088403</v>
+        <v>8.227433</v>
       </c>
       <c r="I17">
-        <v>0.06014047982217352</v>
+        <v>0.05446070174444989</v>
       </c>
       <c r="J17">
-        <v>0.06014047982217352</v>
+        <v>0.05446070174444988</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>201.243654246126</v>
+        <v>209.1122436666667</v>
       </c>
       <c r="N17">
-        <v>201.243654246126</v>
+        <v>627.336731</v>
       </c>
       <c r="O17">
-        <v>0.5305320256031147</v>
+        <v>0.5129127453994473</v>
       </c>
       <c r="P17">
-        <v>0.5305320256031147</v>
+        <v>0.5129127453994472</v>
       </c>
       <c r="Q17">
-        <v>571.7181386792636</v>
+        <v>573.4856580823914</v>
       </c>
       <c r="R17">
-        <v>571.7181386792636</v>
+        <v>5161.370922741523</v>
       </c>
       <c r="S17">
-        <v>0.03190645058080097</v>
+        <v>0.02793358804812626</v>
       </c>
       <c r="T17">
-        <v>0.03190645058080097</v>
+        <v>0.02793358804812625</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,61 +1517,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.84092505088403</v>
+        <v>2.742477666666666</v>
       </c>
       <c r="H18">
-        <v>2.84092505088403</v>
+        <v>8.227433</v>
       </c>
       <c r="I18">
-        <v>0.06014047982217352</v>
+        <v>0.05446070174444989</v>
       </c>
       <c r="J18">
-        <v>0.06014047982217352</v>
+        <v>0.05446070174444988</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.849567749933223</v>
+        <v>0.9288593333333334</v>
       </c>
       <c r="N18">
-        <v>0.849567749933223</v>
+        <v>2.786578</v>
       </c>
       <c r="O18">
-        <v>0.002239687511875072</v>
+        <v>0.00227831609663822</v>
       </c>
       <c r="P18">
-        <v>0.002239687511875072</v>
+        <v>0.00227831609663822</v>
       </c>
       <c r="Q18">
-        <v>2.413558303208472</v>
+        <v>2.547375977141555</v>
       </c>
       <c r="R18">
-        <v>2.413558303208472</v>
+        <v>22.926383794274</v>
       </c>
       <c r="S18">
-        <v>0.0001346958816158968</v>
+        <v>0.0001240786934185934</v>
       </c>
       <c r="T18">
-        <v>0.0001346958816158968</v>
+        <v>0.0001240786934185933</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.84092505088403</v>
+        <v>2.742477666666666</v>
       </c>
       <c r="H19">
-        <v>2.84092505088403</v>
+        <v>8.227433</v>
       </c>
       <c r="I19">
-        <v>0.06014047982217352</v>
+        <v>0.05446070174444989</v>
       </c>
       <c r="J19">
-        <v>0.06014047982217352</v>
+        <v>0.05446070174444988</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>123.640944143515</v>
+        <v>124.0924226666667</v>
       </c>
       <c r="N19">
-        <v>123.640944143515</v>
+        <v>372.277268</v>
       </c>
       <c r="O19">
-        <v>0.3259505537685957</v>
+        <v>0.3043752201075658</v>
       </c>
       <c r="P19">
-        <v>0.3259505537685957</v>
+        <v>0.3043752201075658</v>
       </c>
       <c r="Q19">
-        <v>351.2546555322648</v>
+        <v>340.3206977658937</v>
       </c>
       <c r="R19">
-        <v>351.2546555322648</v>
+        <v>3062.886279893044</v>
       </c>
       <c r="S19">
-        <v>0.01960282270194652</v>
+        <v>0.01657648808067943</v>
       </c>
       <c r="T19">
-        <v>0.01960282270194652</v>
+        <v>0.01657648808067943</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.84092505088403</v>
+        <v>2.742477666666666</v>
       </c>
       <c r="H20">
-        <v>2.84092505088403</v>
+        <v>8.227433</v>
       </c>
       <c r="I20">
-        <v>0.06014047982217352</v>
+        <v>0.05446070174444989</v>
       </c>
       <c r="J20">
-        <v>0.06014047982217352</v>
+        <v>0.05446070174444988</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>52.6681114361892</v>
+        <v>72.56660866666667</v>
       </c>
       <c r="N20">
-        <v>52.6681114361892</v>
+        <v>217.699826</v>
       </c>
       <c r="O20">
-        <v>0.1388472096156539</v>
+        <v>0.1779921530318332</v>
       </c>
       <c r="P20">
-        <v>0.1388472096156539</v>
+        <v>0.1779921530318332</v>
       </c>
       <c r="Q20">
-        <v>149.6261571618216</v>
+        <v>199.0123036140731</v>
       </c>
       <c r="R20">
-        <v>149.6261571618216</v>
+        <v>1791.110732526658</v>
       </c>
       <c r="S20">
-        <v>0.00835033780825533</v>
+        <v>0.00969357755911915</v>
       </c>
       <c r="T20">
-        <v>0.00835033780825533</v>
+        <v>0.009693577559119147</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2.742477666666666</v>
+      </c>
+      <c r="H21">
+        <v>8.227433</v>
+      </c>
+      <c r="I21">
+        <v>0.05446070174444989</v>
+      </c>
+      <c r="J21">
+        <v>0.05446070174444988</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.9954153333333333</v>
+      </c>
+      <c r="N21">
+        <v>2.986246</v>
+      </c>
+      <c r="O21">
+        <v>0.002441565364515724</v>
+      </c>
+      <c r="P21">
+        <v>0.002441565364515724</v>
+      </c>
+      <c r="Q21">
+        <v>2.729904320724222</v>
+      </c>
+      <c r="R21">
+        <v>24.569138886518</v>
+      </c>
+      <c r="S21">
+        <v>0.0001329693631064699</v>
+      </c>
+      <c r="T21">
+        <v>0.0001329693631064699</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>3.052037666666667</v>
+      </c>
+      <c r="H22">
+        <v>9.156113</v>
+      </c>
+      <c r="I22">
+        <v>0.0606080097196149</v>
+      </c>
+      <c r="J22">
+        <v>0.06060800971961489</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>209.1122436666667</v>
+      </c>
+      <c r="N22">
+        <v>627.336731</v>
+      </c>
+      <c r="O22">
+        <v>0.5129127453994473</v>
+      </c>
+      <c r="P22">
+        <v>0.5129127453994472</v>
+      </c>
+      <c r="Q22">
+        <v>638.2184442318448</v>
+      </c>
+      <c r="R22">
+        <v>5743.965998086603</v>
+      </c>
+      <c r="S22">
+        <v>0.03108662065848406</v>
+      </c>
+      <c r="T22">
+        <v>0.03108662065848405</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>3.052037666666667</v>
+      </c>
+      <c r="H23">
+        <v>9.156113</v>
+      </c>
+      <c r="I23">
+        <v>0.0606080097196149</v>
+      </c>
+      <c r="J23">
+        <v>0.06060800971961489</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.9288593333333334</v>
+      </c>
+      <c r="N23">
+        <v>2.786578</v>
+      </c>
+      <c r="O23">
+        <v>0.00227831609663822</v>
+      </c>
+      <c r="P23">
+        <v>0.00227831609663822</v>
+      </c>
+      <c r="Q23">
+        <v>2.834913672368222</v>
+      </c>
+      <c r="R23">
+        <v>25.514223051314</v>
+      </c>
+      <c r="S23">
+        <v>0.0001380842041294043</v>
+      </c>
+      <c r="T23">
+        <v>0.0001380842041294043</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>3.052037666666667</v>
+      </c>
+      <c r="H24">
+        <v>9.156113</v>
+      </c>
+      <c r="I24">
+        <v>0.0606080097196149</v>
+      </c>
+      <c r="J24">
+        <v>0.06060800971961489</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>124.0924226666667</v>
+      </c>
+      <c r="N24">
+        <v>372.277268</v>
+      </c>
+      <c r="O24">
+        <v>0.3043752201075658</v>
+      </c>
+      <c r="P24">
+        <v>0.3043752201075658</v>
+      </c>
+      <c r="Q24">
+        <v>378.7347481265871</v>
+      </c>
+      <c r="R24">
+        <v>3408.612733139284</v>
+      </c>
+      <c r="S24">
+        <v>0.01844757629868927</v>
+      </c>
+      <c r="T24">
+        <v>0.01844757629868927</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>2.84092505088403</v>
-      </c>
-      <c r="H21">
-        <v>2.84092505088403</v>
-      </c>
-      <c r="I21">
-        <v>0.06014047982217352</v>
-      </c>
-      <c r="J21">
-        <v>0.06014047982217352</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>0.921956465244721</v>
-      </c>
-      <c r="N21">
-        <v>0.921956465244721</v>
-      </c>
-      <c r="O21">
-        <v>0.002430523500760697</v>
-      </c>
-      <c r="P21">
-        <v>0.002430523500760697</v>
-      </c>
-      <c r="Q21">
-        <v>2.619209217938219</v>
-      </c>
-      <c r="R21">
-        <v>2.619209217938219</v>
-      </c>
-      <c r="S21">
-        <v>0.0001461728495548173</v>
-      </c>
-      <c r="T21">
-        <v>0.0001461728495548173</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>3.052037666666667</v>
+      </c>
+      <c r="H25">
+        <v>9.156113</v>
+      </c>
+      <c r="I25">
+        <v>0.0606080097196149</v>
+      </c>
+      <c r="J25">
+        <v>0.06060800971961489</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>72.56660866666667</v>
+      </c>
+      <c r="N25">
+        <v>217.699826</v>
+      </c>
+      <c r="O25">
+        <v>0.1779921530318332</v>
+      </c>
+      <c r="P25">
+        <v>0.1779921530318332</v>
+      </c>
+      <c r="Q25">
+        <v>221.4760229929264</v>
+      </c>
+      <c r="R25">
+        <v>1993.284206936338</v>
+      </c>
+      <c r="S25">
+        <v>0.01078775014096853</v>
+      </c>
+      <c r="T25">
+        <v>0.01078775014096852</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>3.052037666666667</v>
+      </c>
+      <c r="H26">
+        <v>9.156113</v>
+      </c>
+      <c r="I26">
+        <v>0.0606080097196149</v>
+      </c>
+      <c r="J26">
+        <v>0.06060800971961489</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.9954153333333333</v>
+      </c>
+      <c r="N26">
+        <v>2.986246</v>
+      </c>
+      <c r="O26">
+        <v>0.002441565364515724</v>
+      </c>
+      <c r="P26">
+        <v>0.002441565364515724</v>
+      </c>
+      <c r="Q26">
+        <v>3.038045091310889</v>
+      </c>
+      <c r="R26">
+        <v>27.342405821798</v>
+      </c>
+      <c r="S26">
+        <v>0.0001479784173436441</v>
+      </c>
+      <c r="T26">
+        <v>0.000147978417343644</v>
       </c>
     </row>
   </sheetData>
